--- a/Prop_Sims/Sensor_Observation_Sequence.xlsx
+++ b/Prop_Sims/Sensor_Observation_Sequence.xlsx
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -1045,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -1350,304 +1350,304 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
